--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2497023.162412975</v>
+        <v>2494771.082701768</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>92.72329049755739</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>95.92502041856162</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>32.83323659136504</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>150.2062474346973</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>343.4798709087835</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>78.78083674902071</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>214.8708340520382</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>45.06776172308889</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>33.43460157532827</v>
+        <v>120.7307820829394</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054876</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>81.07546534818415</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>139.7072979240949</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389318045</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>192.7715349547537</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.42721558712974</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8253826161909023</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>21.90286287505425</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.1441996497202</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546966</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333688</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>94.05355358057983</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3118.421193117517</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3118.421193117517</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3118.421193117517</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2765.652537847403</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2392.186779586323</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,19 +4410,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>99.67700187800671</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>99.67700187800671</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4516,22 +4516,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1494.054724415577</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1494.054724415577</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1494.054724415577</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1494.054724415577</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1887.813801820606</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1518.851284880194</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2345.167438673965</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.167438673965</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313.9544330261738</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
         <v>163.8377936138381</v>
@@ -4720,7 +4720,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1488.486686140809</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1233.802197934922</v>
+        <v>1378.488599602889</v>
       </c>
       <c r="W7" t="n">
-        <v>944.385027897961</v>
+        <v>1089.071429565929</v>
       </c>
       <c r="X7" t="n">
-        <v>716.3954769999436</v>
+        <v>861.0818786679114</v>
       </c>
       <c r="Y7" t="n">
-        <v>495.6028978564135</v>
+        <v>640.2892995243812</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1921.870414581994</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="C8" t="n">
-        <v>1552.907897641582</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="D8" t="n">
-        <v>1194.642199034832</v>
+        <v>920.7766538636572</v>
       </c>
       <c r="E8" t="n">
-        <v>808.8539464365876</v>
+        <v>534.9884012654129</v>
       </c>
       <c r="F8" t="n">
-        <v>397.8680416469801</v>
+        <v>528.0429005162094</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2698.609586621928</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y8" t="n">
-        <v>2308.470254646116</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>662.1522880254209</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
         <v>343.0994656851783</v>
@@ -5194,16 +5194,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1064.593331999191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>843.8007528556607</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>538.7363435406111</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1169.166938412398</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>941.1773875143809</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>720.3848083708508</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819236</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,25 +5987,25 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
         <v>261.0127623330919</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,52 +6686,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>482.6390612909563</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>482.6390612909563</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>482.6390612909563</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>315.4429620058363</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7169,19 +7169,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>417.7969033733018</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>270.9069558753914</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>270.9069558753914</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
   </sheetData>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-1.23234858748608e-12</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>67.5400076700282</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>146.8157004124961</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.75554125013275</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>24.63391537253457</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187162</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>84.99383243580149</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>145.6085800303783</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>2.150513196503709</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.7126101431582</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187579</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>46.24115926564403</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796727.0381379531</v>
+        <v>796727.038137953</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796727.0381379531</v>
+        <v>796727.038137953</v>
       </c>
     </row>
     <row r="11">
@@ -26314,19 +26314,19 @@
         <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
@@ -26344,7 +26344,7 @@
         <v>625538.6147597546</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
@@ -26353,7 +26353,7 @@
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26522,46 +26522,46 @@
         <v>-890115.437702299</v>
       </c>
       <c r="C6" t="n">
-        <v>438629.3080252942</v>
+        <v>438629.3080252938</v>
       </c>
       <c r="D6" t="n">
-        <v>438629.3080252936</v>
+        <v>438629.308025294</v>
       </c>
       <c r="E6" t="n">
-        <v>188446.5348417113</v>
+        <v>188411.7969162757</v>
       </c>
       <c r="F6" t="n">
-        <v>513858.9966490664</v>
+        <v>513824.2587236304</v>
       </c>
       <c r="G6" t="n">
-        <v>513858.9966490662</v>
+        <v>513824.2587236311</v>
       </c>
       <c r="H6" t="n">
-        <v>513858.9966490664</v>
+        <v>513824.2587236307</v>
       </c>
       <c r="I6" t="n">
-        <v>513858.9966490665</v>
+        <v>513824.2587236309</v>
       </c>
       <c r="J6" t="n">
-        <v>296327.7942517889</v>
+        <v>296293.0563263532</v>
       </c>
       <c r="K6" t="n">
-        <v>513858.9966490664</v>
+        <v>513824.2587236307</v>
       </c>
       <c r="L6" t="n">
-        <v>513858.9966490663</v>
+        <v>513824.2587236306</v>
       </c>
       <c r="M6" t="n">
-        <v>428803.9687135545</v>
+        <v>428769.2307881189</v>
       </c>
       <c r="N6" t="n">
-        <v>513858.9966490665</v>
+        <v>513824.2587236308</v>
       </c>
       <c r="O6" t="n">
-        <v>513858.9966490665</v>
+        <v>513824.2587236308</v>
       </c>
       <c r="P6" t="n">
-        <v>513858.9966490665</v>
+        <v>513824.2587236306</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26969,7 +26969,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>261.9597511231256</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>107.9929497210585</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>112.5878114315662</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11.20317071189942</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>270.4601319683923</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>71.34100415357469</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>207.0698816007391</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>377.4871240781252</v>
+        <v>290.1909435705141</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.1000969860422</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>290.6810969936921</v>
+        <v>567.4250434254229</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,28 +32075,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>555.1777416630679</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>538.5853835133125</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>241.387751759078</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067208</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>709.4760096096869</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471796</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048113</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>159.3393849103587</v>
+        <v>436.0833313420897</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>416.6233618831937</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912942</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>114.5501250924113</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236314895</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>578.1342975263536</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>205.0040068187898</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
